--- a/src/api/data/log/log.xlsx
+++ b/src/api/data/log/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
         <v>0.04342794418334961</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.08724188804626465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/api/data/log/log.xlsx
+++ b/src/api/data/log/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,41 @@
         <v>0.08724188804626465</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.007537841796875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.005610942840576172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.001784086227416992</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.001009702682495117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.03539609909057617</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.001322031021118164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.002700090408325195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
